--- a/api/data/DB_RegistrationDetails_WORK2.xlsx
+++ b/api/data/DB_RegistrationDetails_WORK2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kevin_59ku82\Documents\vue\umiya\api\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73E7F61B-E5FE-4E1B-9789-1DB5B5F414EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE862ACD-08EB-4BB0-AB93-5135D64BE6AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="430" yWindow="480" windowWidth="17260" windowHeight="10050" xr2:uid="{F507D3BA-8EDA-467E-B6EB-CC59230C88EF}"/>
+    <workbookView xWindow="1710" yWindow="2000" windowWidth="13630" windowHeight="9210" xr2:uid="{F507D3BA-8EDA-467E-B6EB-CC59230C88EF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -6489,9 +6489,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65F29C16-2812-41B8-9B98-808AE42AFE16}">
   <dimension ref="A1:AB223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A208" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P203" sqref="P202:P203"/>
+    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="X48" sqref="X48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6519,7 +6519,8 @@
     <col min="21" max="21" width="54.7265625" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="16.81640625" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="14.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="29.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="36" style="1" customWidth="1"/>
+    <col min="25" max="25" width="29.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="13.6328125" style="3" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="17.54296875" style="1" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="16.54296875" style="3" bestFit="1" customWidth="1"/>
